--- a/relatorios/repasses_liberados/dentistas/10261054473/2023-08-25_relatorio_repasses_10261054473.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10261054473/2023-08-25_relatorio_repasses_10261054473.xlsx
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -5528,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7420,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N146">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:14">
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9180,10 +9180,10 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>10</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -9620,7 +9620,7 @@
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N196">
         <v>0</v>
@@ -9708,7 +9708,7 @@
         <v>0</v>
       </c>
       <c r="M198">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N198">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10544,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N217">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11820,7 +11820,7 @@
         <v>0</v>
       </c>
       <c r="M246">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N246">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -12260,10 +12260,10 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N256">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="M284">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N284">
         <v>0</v>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15428,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N377">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/10261054473/2023-08-25_relatorio_repasses_10261054473.xlsx
+++ b/relatorios/repasses_liberados/dentistas/10261054473/2023-08-25_relatorio_repasses_10261054473.xlsx
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N40">
-        <v>6.6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3064,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -3152,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N49">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N51">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N56">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N58">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N60">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N61">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>65</v>
+        <v>0.5</v>
       </c>
       <c r="N62">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N65">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N68">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -4076,10 +4076,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4120,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N71">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N72">
         <v>0</v>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="M73">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N73">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N74">
         <v>0</v>
@@ -4296,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N75">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4340,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N76">
         <v>0</v>
@@ -4384,10 +4384,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N77">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4428,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N79">
         <v>0</v>
@@ -4516,10 +4516,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N80">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N81">
         <v>0</v>
@@ -4604,10 +4604,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N82">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N83">
         <v>0</v>
@@ -4692,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>65</v>
+        <v>0.4</v>
       </c>
       <c r="N84">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4736,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N85">
         <v>0</v>
@@ -4780,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N86">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N87">
         <v>0</v>
@@ -4868,10 +4868,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N88">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N89">
         <v>0</v>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N90">
         <v>0</v>
@@ -5000,10 +5000,10 @@
         <v>0</v>
       </c>
       <c r="M91">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N91">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N92">
         <v>0</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>0</v>
@@ -5484,10 +5484,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -5528,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5572,10 +5572,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="M105">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N105">
         <v>0</v>
@@ -5704,7 +5704,7 @@
         <v>0</v>
       </c>
       <c r="M107">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N107">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N111">
         <v>0</v>
@@ -5924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="M117">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N117">
         <v>0</v>
@@ -6188,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="M118">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N118">
         <v>0</v>
@@ -6232,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="M119">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N119">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N120">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="M121">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N121">
         <v>0</v>
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="M122">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N122">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="M123">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N123">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N127">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N128">
         <v>0</v>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N130">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -6848,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -6892,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="M134">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="M142">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N142">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="M143">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N143">
         <v>0</v>
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N146">
         <v>0</v>
@@ -7552,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7684,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8256,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -8300,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N166">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="M177">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N177">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N195">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="M197">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N197">
         <v>0</v>
@@ -9752,7 +9752,7 @@
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N199">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N201">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="M204">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N204">
         <v>0</v>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="M207">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N207">
         <v>0</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10192,7 +10192,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -10324,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N212">
         <v>0</v>
@@ -10368,10 +10368,10 @@
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N213">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="M214">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N214">
         <v>0</v>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="M216">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N216">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N218">
         <v>0</v>
@@ -10632,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N219">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N223">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
       <c r="M232">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N232">
         <v>0</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="M235">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N235">
         <v>0</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -11776,7 +11776,7 @@
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N245">
         <v>0</v>
@@ -11864,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N247">
         <v>0</v>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
       <c r="M254">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N254">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="M255">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N255">
         <v>0</v>
@@ -12260,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="M256">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N256">
         <v>0</v>
@@ -12304,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="M257">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N257">
         <v>0</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -12920,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13228,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N278">
         <v>0</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N279">
         <v>0</v>
@@ -13448,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="M283">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N283">
         <v>0</v>
@@ -13536,7 +13536,7 @@
         <v>0</v>
       </c>
       <c r="M285">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N285">
         <v>0</v>
@@ -13624,7 +13624,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -13888,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -13932,7 +13932,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -13976,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="M295">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N295">
         <v>0</v>
@@ -14020,7 +14020,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14416,7 +14416,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14460,7 +14460,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14548,7 +14548,7 @@
         <v>0</v>
       </c>
       <c r="M308">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N308">
         <v>0</v>
@@ -14724,7 +14724,7 @@
         <v>0</v>
       </c>
       <c r="M312">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N312">
         <v>0</v>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="M313">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N313">
         <v>0</v>
@@ -14856,7 +14856,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -14900,7 +14900,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="M322">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N322">
         <v>0</v>
@@ -15340,7 +15340,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15384,7 +15384,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15472,7 +15472,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="M331">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N331">
         <v>0</v>
@@ -15604,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="M332">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N332">
         <v>0</v>
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15692,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="M334">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N334">
         <v>0</v>
@@ -15824,7 +15824,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -15912,7 +15912,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -16088,7 +16088,7 @@
         <v>0</v>
       </c>
       <c r="M343">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N343">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="M344">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N344">
         <v>0</v>
@@ -16176,7 +16176,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16220,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
       <c r="M347">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N347">
         <v>0</v>
@@ -16308,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="M348">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N348">
         <v>0</v>
@@ -16440,7 +16440,7 @@
         <v>0</v>
       </c>
       <c r="M351">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N351">
         <v>0</v>
@@ -16484,7 +16484,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="M367">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -17232,7 +17232,7 @@
         <v>0</v>
       </c>
       <c r="M369">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N369">
         <v>0</v>
@@ -17320,7 +17320,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -17584,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="M377">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N377">
         <v>0</v>
@@ -17760,7 +17760,7 @@
         <v>0</v>
       </c>
       <c r="M381">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N381">
         <v>0</v>
